--- a/tests/data/test_data.xlsx
+++ b/tests/data/test_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17480" windowWidth="28800" xWindow="3100" yWindow="2160"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3100" yWindow="2160" windowWidth="28800" windowHeight="17480" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,9 +20,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="0.0000000000000000" numFmtId="164"/>
-    <numFmt formatCode="0.00000000000000000000000" numFmtId="165"/>
-    <numFmt formatCode="0.00000000" numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -96,32 +96,32 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -459,8 +459,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="13.5"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="7" width="40.6640625"/>
+    <col width="13.5" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="40.6640625" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1167,8 +1167,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup horizontalDpi="4294967292" orientation="portrait" paperSize="9" verticalDpi="4294967292"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
 </file>
 
@@ -1306,7 +1306,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1664,7 +1664,7 @@
       <c r="O7" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1693,7 +1693,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1711,8 +1711,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="7" width="15.33203125"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="7" width="25.83203125"/>
+    <col width="15.33203125" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="25.83203125" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2011,6 +2011,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>